--- a/excel/import_data.xlsx
+++ b/excel/import_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hauw\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3660C8A-749D-4166-92CF-581FEE5D6BA1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ED28709-E1CD-4366-B53D-702F7950B7C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="37">
   <si>
     <t>Tag</t>
   </si>
@@ -71,16 +71,84 @@
   </si>
   <si>
     <t>liat contoh link di samping</t>
+  </si>
+  <si>
+    <t>232hgngf</t>
+  </si>
+  <si>
+    <t>fdbgd</t>
+  </si>
+  <si>
+    <t>fdbngrt</t>
+  </si>
+  <si>
+    <t>e4h6yn</t>
+  </si>
+  <si>
+    <t>ty,k54h5reb</t>
+  </si>
+  <si>
+    <t>Designer to try to break rules and </t>
+  </si>
+  <si>
+    <t>I'm passionate about food, the tradition of it, cooking it, sharing </t>
+  </si>
+  <si>
+    <t>I think it's the responsibility of a designer to try to </t>
+  </si>
+  <si>
+    <t>apa aja boleh</t>
+  </si>
+  <si>
+    <t>dvs</t>
+  </si>
+  <si>
+    <t>nrryd</t>
+  </si>
+  <si>
+    <t>54t5ht</t>
+  </si>
+  <si>
+    <t>hrtbty64er</t>
+  </si>
+  <si>
+    <t>rtjnt</t>
+  </si>
+  <si>
+    <t>fdbdw232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tymty </t>
+  </si>
+  <si>
+    <t>dssvdbdfb</t>
+  </si>
+  <si>
+    <t>fdbbd</t>
+  </si>
+  <si>
+    <t>dfbdf</t>
+  </si>
+  <si>
+    <t>dfbdfbdf</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -103,16 +171,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="3">
@@ -141,8 +214,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:H10" totalsRowShown="0">
-  <autoFilter ref="A1:H10" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:H21" totalsRowShown="0">
+  <autoFilter ref="A1:H21" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Tanggal"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Kategori"/>
@@ -478,10 +551,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9:H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -524,15 +597,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>43893</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C2">
-        <v>15000</v>
+      <c r="C2" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="D2" s="1">
         <v>32</v>
@@ -553,15 +626,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>43894</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
       </c>
-      <c r="C3">
-        <v>15000</v>
+      <c r="C3" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="D3" s="1">
         <v>32</v>
@@ -589,8 +662,8 @@
       <c r="B4" t="s">
         <v>1</v>
       </c>
-      <c r="C4">
-        <v>15000</v>
+      <c r="C4" t="s">
+        <v>17</v>
       </c>
       <c r="D4" s="1">
         <v>32</v>
@@ -618,8 +691,8 @@
       <c r="B5" t="s">
         <v>1</v>
       </c>
-      <c r="C5">
-        <v>15000</v>
+      <c r="C5" t="s">
+        <v>18</v>
       </c>
       <c r="D5" s="1">
         <v>32</v>
@@ -647,8 +720,8 @@
       <c r="B6" t="s">
         <v>1</v>
       </c>
-      <c r="C6">
-        <v>15000</v>
+      <c r="C6" t="s">
+        <v>19</v>
       </c>
       <c r="D6" s="1">
         <v>32</v>
@@ -673,8 +746,8 @@
       <c r="B7" t="s">
         <v>1</v>
       </c>
-      <c r="C7">
-        <v>15000</v>
+      <c r="C7" t="s">
+        <v>20</v>
       </c>
       <c r="D7" s="1">
         <v>32</v>
@@ -699,8 +772,8 @@
       <c r="B8" t="s">
         <v>1</v>
       </c>
-      <c r="C8">
-        <v>15000</v>
+      <c r="C8" t="s">
+        <v>21</v>
       </c>
       <c r="D8" s="1">
         <v>32</v>
@@ -721,15 +794,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>43900</v>
       </c>
       <c r="B9" t="s">
         <v>1</v>
       </c>
-      <c r="C9">
-        <v>15000</v>
+      <c r="C9" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="D9" s="1">
         <v>32</v>
@@ -754,30 +827,333 @@
       <c r="B10" t="s">
         <v>1</v>
       </c>
-      <c r="C10">
-        <v>15000</v>
+      <c r="C10" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="D10" s="1">
+        <v>33</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>43902</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="1">
+        <v>34</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>3</v>
+      </c>
+      <c r="G11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>43903</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="1">
+        <v>35</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>4</v>
+      </c>
+      <c r="G12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H12" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>43904</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="1">
+        <v>36</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>5</v>
+      </c>
+      <c r="G13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H13" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>43905</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="1">
+        <v>37</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>6</v>
+      </c>
+      <c r="G14" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>43906</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="1">
+        <v>38</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>7</v>
+      </c>
+      <c r="G15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>43907</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10" t="s">
-        <v>10</v>
-      </c>
-      <c r="H10" s="2">
+      <c r="D16" s="1">
+        <v>39</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>8</v>
+      </c>
+      <c r="G16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H16" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>43908</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="1">
+        <v>40</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>9</v>
+      </c>
+      <c r="G17" t="s">
+        <v>10</v>
+      </c>
+      <c r="H17" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>43909</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="1">
+        <v>41</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>10</v>
+      </c>
+      <c r="G18" t="s">
+        <v>10</v>
+      </c>
+      <c r="H18" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>43910</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" s="1">
+        <v>42</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>11</v>
+      </c>
+      <c r="G19" t="s">
+        <v>10</v>
+      </c>
+      <c r="H19" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>43911</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" s="1">
+        <v>43</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>12</v>
+      </c>
+      <c r="G20" t="s">
+        <v>10</v>
+      </c>
+      <c r="H20" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>43912</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" s="1">
+        <v>44</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>13</v>
+      </c>
+      <c r="G21" t="s">
+        <v>10</v>
+      </c>
+      <c r="H21" s="2">
         <v>1</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" display="http://kavio_such_ci.test/Blog" xr:uid="{BD2B3E7A-8101-4816-AC80-F068A0AB2CAF}"/>
+    <hyperlink ref="C3" r:id="rId2" display="http://kavio_such_ci.test/Blog" xr:uid="{C4066183-1C34-4452-8CA0-11B302CC1216}"/>
+    <hyperlink ref="C9" r:id="rId3" display="http://kavio_such_ci.test/Blog" xr:uid="{E22867E9-4BC1-4099-AFFC-57B09122105F}"/>
+    <hyperlink ref="C10" r:id="rId4" display="http://kavio_such_ci.test/Blog" xr:uid="{50DE9FB3-B37B-4B28-877A-6F65F191B4EF}"/>
+    <hyperlink ref="C11" r:id="rId5" display="http://kavio_such_ci.test/Blog" xr:uid="{34B87A03-07C5-4796-A31E-52E7BB77558E}"/>
+    <hyperlink ref="C12" r:id="rId6" display="http://kavio_such_ci.test/Blog" xr:uid="{C21DE4FD-F3E1-41FC-ADCB-200D0F55C60C}"/>
+    <hyperlink ref="C13" r:id="rId7" display="http://kavio_such_ci.test/Blog" xr:uid="{C4B45627-DE25-4EC8-A3DC-DD2FFCB9C5C4}"/>
+    <hyperlink ref="C14" r:id="rId8" display="http://kavio_such_ci.test/Blog" xr:uid="{76B395F8-F86B-426A-82D7-5A9CDC033FDD}"/>
+    <hyperlink ref="C15" r:id="rId9" display="http://kavio_such_ci.test/Blog" xr:uid="{D7A7B75B-6D56-42C6-8BC6-EC4C1C5A0758}"/>
+    <hyperlink ref="C16" r:id="rId10" display="http://kavio_such_ci.test/Blog" xr:uid="{EF37309E-8A2F-4D8C-9558-989EEE05B3AD}"/>
+    <hyperlink ref="C17" r:id="rId11" display="http://kavio_such_ci.test/Blog" xr:uid="{9A21773E-0EA7-41F8-BFD1-C1A311616922}"/>
+    <hyperlink ref="C18" r:id="rId12" display="http://kavio_such_ci.test/Blog" xr:uid="{349EB5BD-312D-4472-BB74-E9CC96D805F2}"/>
+    <hyperlink ref="C19" r:id="rId13" display="http://kavio_such_ci.test/Blog" xr:uid="{16CE670F-0C5A-44D4-980C-FFECDE853B15}"/>
+    <hyperlink ref="C20" r:id="rId14" display="http://kavio_such_ci.test/Blog" xr:uid="{A18F634C-D0D1-4292-85D2-7D7239D34866}"/>
+    <hyperlink ref="C21" r:id="rId15" display="http://kavio_such_ci.test/Blog" xr:uid="{B3F937A0-46D2-4CC7-90CA-FAEBFA66F8C8}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId16"/>
   </tableParts>
 </worksheet>
 </file>